--- a/manual/תבנית זמינות.xlsx
+++ b/manual/תבנית זמינות.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orbac\Desktop\Shift-Schedule\Shift-Schedule\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF199D9-E902-45D6-8386-4D43BF5B86F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D6313-A311-4786-85FF-75EB6305A36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="22155" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>א</t>
   </si>
@@ -43,101 +48,252 @@
     <t>ש</t>
   </si>
   <si>
+    <t>מקרא:</t>
+  </si>
+  <si>
+    <t>הערות:</t>
+  </si>
+  <si>
+    <t>משבצת ריקה - לא יכול בכלל</t>
+  </si>
+  <si>
     <t>כמות משמרות:</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">אם מישהו יכול </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>עד</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> שעה מסויימת תרשום בתוך סוגריים </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>מעוגלות</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> למשל- צהריים עד 21 יהיה: (21:00)b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">אם מישהו יכול </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>מ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">שעה מסויימת תרשום בתוך סוגריים </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>מרובעות</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> למשל-צהריים מ15:30 יהיה: [15:30]b</t>
+    </r>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - רק בוקר</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - רק צהריים</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - רק לילה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - פנוי להכל</t>
+  </si>
+  <si>
+    <r>
+      <t>אם תרצה לשנות אותיות תחליף את האות שנמצאת בתא של "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>בחירת אותיות</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"-M1 (חייב אות יחידה באנגלית)</t>
+    </r>
+  </si>
+  <si>
+    <t>אם מישהו יכול כמה משמרות באותו יום תפריד ע"י נקודה למשל: a.b.c</t>
+  </si>
+  <si>
+    <t>תגבור</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">לשמור על סדר באותיות למשל אם מישהו רוצה בוקר צהריים אז לרשום: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a.b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ולא לרשום b.a)</t>
+    </r>
+  </si>
+  <si>
+    <t>כמות אנשים:</t>
+  </si>
+  <si>
+    <t>כמות לילות לכל עובד:</t>
+  </si>
+  <si>
+    <t>כמות משמרות בכל יום</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אותיות:</t>
+  </si>
+  <si>
     <t>כמות לילות:</t>
   </si>
   <si>
+    <t>העדפה ללילות רצופים Y/N:</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>a.b</t>
+  </si>
+  <si>
+    <t>b.c</t>
+  </si>
+  <si>
+    <t>a.c</t>
+  </si>
+  <si>
+    <t>זיו</t>
+  </si>
+  <si>
+    <t>אור</t>
+  </si>
+  <si>
+    <t>רוני</t>
+  </si>
+  <si>
     <t>אמור</t>
   </si>
   <si>
-    <t>אור</t>
+    <t>אוראל</t>
+  </si>
+  <si>
+    <t>יניב</t>
   </si>
   <si>
     <t>עמית</t>
-  </si>
-  <si>
-    <t>רוני</t>
-  </si>
-  <si>
-    <t>יניב</t>
-  </si>
-  <si>
-    <t>זיו</t>
-  </si>
-  <si>
-    <t>אוראל</t>
-  </si>
-  <si>
-    <t>תגבור</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>כמות משמרות בכל יום</t>
-  </si>
-  <si>
-    <t>הערות:</t>
-  </si>
-  <si>
-    <t>אם מישהו יכול עד שעה מסויימת תרשום בתוך סוגריים מעוגלות למשל- צהריים עד 21 יהיה: (21:00)b</t>
-  </si>
-  <si>
-    <t>מקרא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אותיות:</t>
-  </si>
-  <si>
-    <t>אם מישהו יכול משעה מסויימת תרשום בתוך סוגריים מרובעות למשל-צהריים מ15:30 יהיה: [15:30]b</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - רק בוקר</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>אם מישהו יכול כמה משמרות באותו יום תפריד ע"י נקודה למשל: a.b.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - רק צהריים</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>אם תרצה לשנות אותיות תחליף את האות שנמצאת בתא של "בחירת אותיות"-M1 (חייב אות יחידה באנגלית)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - רק לילה</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>לשמור על סדר באותיות למשל אם מישהו רוצה בוקר צהריים אז לרשום: a.b (ולא לרשום b.a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - פנוי להכל</t>
-  </si>
-  <si>
-    <t>משבצת ריקה - לא יכול בכלל</t>
-  </si>
-  <si>
-    <t>כמות אנשים:</t>
-  </si>
-  <si>
-    <t>כמות לילות לכל עובד:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +330,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -465,43 +630,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
@@ -518,9 +653,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,12 +733,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9FD2A21E-AFBF-4FB8-9E4D-104AAA901E95}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,6 +750,767 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$I$2" max="6" page="10" val="6"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$K$4" max="30000" page="10" val="2"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$K$5" max="30000" page="10" val="2"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$K$6" max="30000" page="10" val="2"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$K$7" max="30000" page="10" val="2"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$K$8" max="30000" page="10" val="2"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$I$3" max="6" page="10" val="6"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$I$4" max="6" page="10" val="6"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$I$5" max="6" page="10" val="6"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$I$6" max="6" page="10" val="6"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$I$7" max="6" page="10" val="6"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$I$8" max="6" page="10" val="6"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$K$2" max="30000" page="10" val="2"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$K$3" max="30000" page="10" val="2"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Spinner 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Spinner 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Spinner 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Spinner 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Spinner 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Spinner 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Spinner 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Spinner 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Spinner 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Spinner 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Spinner 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Spinner 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Spinner 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,12 +1775,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B2:H8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,414 +1801,843 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="9"/>
+      <c r="I1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="19">
+      <c r="A2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="16">
         <v>6</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="37">
+      <c r="J2" s="3"/>
+      <c r="K2" s="34">
         <v>2</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="34" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="21">
+      <c r="A3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="18">
         <v>6</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="38">
+      <c r="J3" s="3"/>
+      <c r="K3" s="35">
         <v>2</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="35" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="23">
+      <c r="A4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="20">
         <v>6</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="39">
+      <c r="J4" s="3"/>
+      <c r="K4" s="36">
         <v>2</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="36" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="25">
+      <c r="A5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="22">
         <v>6</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="40">
+      <c r="J5" s="3"/>
+      <c r="K5" s="37">
         <v>2</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="37" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="27">
+      <c r="C6" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="24">
         <v>6</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="41">
+      <c r="J6" s="3"/>
+      <c r="K6" s="38">
         <v>2</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="38" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="29">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="26">
         <v>6</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="42">
+      <c r="J7" s="3"/>
+      <c r="K7" s="39">
         <v>2</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="39" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="31">
+      <c r="E8" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="28">
         <v>6</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="43">
-        <v>3</v>
-      </c>
-      <c r="L8" s="5"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="40">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="40" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="36">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="33">
         <v>6</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="44">
+      <c r="J9" s="3"/>
+      <c r="K9" s="41">
         <v>6</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="41" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>4</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>4</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>5</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="11">
         <v>6</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="10"/>
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="5"/>
+      <c r="B14" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="5"/>
+      <c r="B15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="K16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="5"/>
+      <c r="B16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="K16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="K17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="5"/>
+      <c r="B17" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="5"/>
+      <c r="K18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="8">
+      <c r="K20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="6">
         <v>7</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="8">
+      <c r="K21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="6">
         <v>2</v>
       </c>
-      <c r="N21" s="5"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId3" name="Spinner 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId4" name="Spinner 3">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId5" name="Spinner 4">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId6" name="Spinner 5">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId7" name="Spinner 6">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId8" name="Spinner 7">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId9" name="Spinner 8">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId10" name="Spinner 9">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId11" name="Spinner 10">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId12" name="Spinner 11">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId13" name="Spinner 12">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId14" name="Spinner 13">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId15" name="Spinner 14">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId16" name="Spinner 15">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/manual/תבנית זמינות.xlsx
+++ b/manual/תבנית זמינות.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orbac\Desktop\Shift-Schedule\Shift-Schedule\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D6313-A311-4786-85FF-75EB6305A36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C0C3F2-B7F3-442B-B987-76EC441DE0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>א</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>עמית</t>
+  </si>
+  <si>
+    <t>כמות 8-8:</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -733,7 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,10 +1779,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,9 +1800,12 @@
     <col min="12" max="12" width="3" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" customWidth="1"/>
     <col min="14" max="14" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -1834,30 +1839,39 @@
       <c r="M1" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="43" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="16">
@@ -1871,30 +1885,36 @@
       <c r="M2" s="34" t="s">
         <v>31</v>
       </c>
+      <c r="N2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="34">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="43" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="18">
@@ -1908,30 +1928,36 @@
       <c r="M3" s="35" t="s">
         <v>31</v>
       </c>
+      <c r="N3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="35">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="43" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="20">
@@ -1945,26 +1971,30 @@
       <c r="M4" s="36" t="s">
         <v>31</v>
       </c>
+      <c r="N4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="36">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="43" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="43" t="s">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="22">
@@ -1978,30 +2008,36 @@
       <c r="M5" s="37" t="s">
         <v>31</v>
       </c>
+      <c r="N5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="37">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="43" t="s">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="24">
@@ -2015,26 +2051,30 @@
       <c r="M6" s="38" t="s">
         <v>31</v>
       </c>
+      <c r="N6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="38">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="43" t="s">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="26">
@@ -2048,26 +2088,30 @@
       <c r="M7" s="39" t="s">
         <v>31</v>
       </c>
+      <c r="N7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="39">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43" t="s">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="28">
@@ -2081,8 +2125,14 @@
       <c r="M8" s="40" t="s">
         <v>31</v>
       </c>
+      <c r="N8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="40">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
@@ -2118,8 +2168,14 @@
       <c r="M9" s="41" t="s">
         <v>31</v>
       </c>
+      <c r="N9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="41">
+        <v>6</v>
+      </c>
+      <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2132,8 +2188,14 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -2162,8 +2224,14 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2179,7 +2247,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2270,7 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>12</v>
       </c>
@@ -2222,7 +2290,7 @@
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>22</v>
       </c>
@@ -2242,7 +2310,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>21</v>
       </c>
